--- a/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
+++ b/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430" activeTab="1"/>
   </bookViews>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,9 +1057,6 @@
     <t>Input information  in "Chữ Hán" textbox</t>
   </si>
   <si>
-    <t>Input capcha  in "Mã xác nhận" textbox</t>
-  </si>
-  <si>
     <t>Input meaning  in "Nghĩa" textbox</t>
   </si>
   <si>
@@ -1232,6 +1234,9 @@
   </si>
   <si>
     <t>Word that user choose is displayed</t>
+  </si>
+  <si>
+    <t>Input captcha  in "Mã xác nhận" textbox</t>
   </si>
 </sst>
 </file>
@@ -3231,6 +3236,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3251,24 +3274,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6341,7 +6346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6376,7 +6381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6607,14 +6612,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6629,12 +6634,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6646,12 +6651,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6660,15 +6665,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6677,11 +6682,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6704,10 +6709,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6725,10 +6730,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6742,8 +6747,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6751,8 +6756,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6760,8 +6765,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6769,8 +6774,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6778,8 +6783,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6787,8 +6792,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6796,6 +6801,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6803,12 +6814,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6824,8 +6829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7018,7 +7023,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="70.5" customHeight="1">
@@ -7046,7 +7051,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="77.25" customHeight="1">
@@ -7074,7 +7079,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1" ht="74.25" customHeight="1">
@@ -7102,7 +7107,7 @@
         <v>41</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="44" customFormat="1" ht="73.5" customHeight="1">
@@ -7130,7 +7135,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1">
@@ -7160,7 +7165,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -7191,10 +7196,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -7219,10 +7224,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="62" t="s">
         <v>210</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="20.25" customHeight="1">
@@ -7247,10 +7252,10 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
@@ -7275,10 +7280,10 @@
         <v>37</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
@@ -7303,10 +7308,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1">
@@ -7337,7 +7342,7 @@
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7349,17 +7354,17 @@
         <v>37</v>
       </c>
       <c r="K22" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
@@ -7369,22 +7374,22 @@
       <c r="I23" s="57"/>
       <c r="J23" s="58"/>
       <c r="K23" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="61"/>
       <c r="F24" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7397,13 +7402,13 @@
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="56"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7415,23 +7420,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="56"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7443,23 +7448,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="35.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="64"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7471,17 +7476,17 @@
         <v>37</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="64"/>
@@ -7499,22 +7504,22 @@
         <v>37</v>
       </c>
       <c r="K28" s="56" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="L28" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="60"/>
       <c r="E29" s="61"/>
       <c r="F29" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
@@ -7527,13 +7532,13 @@
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7545,17 +7550,17 @@
         <v>37</v>
       </c>
       <c r="K30" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="60"/>
       <c r="E31" s="64"/>
@@ -7565,22 +7570,22 @@
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" s="56" t="s">
         <v>199</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="61"/>
       <c r="F32" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -7593,7 +7598,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="56"/>
@@ -7614,20 +7619,20 @@
         <v>155</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="56"/>
       <c r="F34" s="62"/>
       <c r="G34" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>35</v>
@@ -7639,23 +7644,23 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="60"/>
       <c r="E35" s="64"/>
       <c r="F35" s="63"/>
       <c r="G35" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>35</v>
@@ -7667,23 +7672,23 @@
         <v>37</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L35" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="64"/>
       <c r="F36" s="63"/>
       <c r="G36" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H36" s="49" t="s">
         <v>35</v>
@@ -7695,23 +7700,23 @@
         <v>37</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L36" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="60"/>
       <c r="E37" s="64"/>
       <c r="F37" s="63"/>
       <c r="G37" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H37" s="49" t="s">
         <v>35</v>
@@ -7723,17 +7728,17 @@
         <v>37</v>
       </c>
       <c r="K37" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L37" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="64"/>
@@ -7751,22 +7756,22 @@
         <v>37</v>
       </c>
       <c r="K38" s="56" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="L38" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" s="60"/>
       <c r="E39" s="61"/>
       <c r="F39" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
@@ -7779,13 +7784,13 @@
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="63"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H40" s="49" t="s">
         <v>35</v>
@@ -7797,17 +7802,17 @@
         <v>37</v>
       </c>
       <c r="K40" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="63"/>
@@ -7817,10 +7822,10 @@
       <c r="I41" s="57"/>
       <c r="J41" s="58"/>
       <c r="K41" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="L41" s="56" t="s">
         <v>199</v>
-      </c>
-      <c r="L41" s="56" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
